--- a/paralg/u2/a1.xlsx
+++ b/paralg/u2/a1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -138,10 +138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -149,7 +149,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6651162790698"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
@@ -167,12 +167,6 @@
       </c>
       <c r="G1" s="0" t="n">
         <v>8388608</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>16777216</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>33554432</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,6 +188,9 @@
       <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="n">
+        <v>1E-006</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
@@ -211,6 +208,9 @@
       <c r="F3" s="1" t="n">
         <v>32699.16</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>134088.2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
@@ -228,6 +228,9 @@
       <c r="F4" s="1" t="n">
         <v>0.050339</v>
       </c>
+      <c r="G4" s="1" t="n">
+        <v>0.088425</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -248,6 +251,9 @@
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
@@ -265,6 +271,9 @@
       <c r="F6" s="1" t="n">
         <v>0.0145893</v>
       </c>
+      <c r="G6" s="1" t="n">
+        <v>0.293418</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
@@ -282,6 +291,9 @@
       <c r="F7" s="1" t="n">
         <v>0.014893</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <v>0.031776</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -302,6 +314,9 @@
       <c r="F8" s="1" t="n">
         <v>2.6E-005</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>2.000001E-005</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
@@ -319,6 +334,9 @@
       <c r="F9" s="1" t="n">
         <v>5200</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>21327.36</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
@@ -335,6 +353,9 @@
       </c>
       <c r="F10" s="1" t="n">
         <v>0.010297</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0.021666</v>
       </c>
     </row>
   </sheetData>
